--- a/hypertuning_results.xlsx
+++ b/hypertuning_results.xlsx
@@ -14,60 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>10_elapsed_reading_wl</t>
-  </si>
-  <si>
-    <t>11_elapsed_training</t>
-  </si>
-  <si>
-    <t>12_elapsed_accuracy</t>
-  </si>
-  <si>
-    <t>13_accuracy</t>
-  </si>
-  <si>
-    <t>1_number_of_documents</t>
-  </si>
-  <si>
-    <t>2_number_of_words</t>
-  </si>
-  <si>
-    <t>3_number_of_letters</t>
-  </si>
-  <si>
-    <t>4_words_features:</t>
-  </si>
-  <si>
-    <t>5_letter_features:</t>
-  </si>
-  <si>
-    <t>6_feautureset</t>
-  </si>
-  <si>
-    <t>7_train set</t>
-  </si>
-  <si>
-    <t>8_test set</t>
-  </si>
-  <si>
-    <t>9_elapsed_feature_creation</t>
-  </si>
-  <si>
-    <t>0:00:30</t>
-  </si>
-  <si>
-    <t>0:00:00</t>
-  </si>
-  <si>
-    <t>0:00:01</t>
-  </si>
-  <si>
-    <t>0:00:04</t>
-  </si>
-  <si>
-    <t>0:00:29</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t>a_number_of_documents</t>
+  </si>
+  <si>
+    <t>b_number_of_words</t>
+  </si>
+  <si>
+    <t>c_number_of_letters</t>
+  </si>
+  <si>
+    <t>d_words_features:</t>
+  </si>
+  <si>
+    <t>e_letter_features:</t>
+  </si>
+  <si>
+    <t>elapsed_accuracy</t>
+  </si>
+  <si>
+    <t>euro_test_accuracy</t>
+  </si>
+  <si>
+    <t>f_feautureset</t>
+  </si>
+  <si>
+    <t>g_train set</t>
+  </si>
+  <si>
+    <t>h_test set</t>
+  </si>
+  <si>
+    <t>j_elapsed_feature_creation</t>
+  </si>
+  <si>
+    <t>k_elapsed_reading_wl</t>
+  </si>
+  <si>
+    <t>l_elapsed_training</t>
+  </si>
+  <si>
+    <t>m_elapsed_accuracy</t>
+  </si>
+  <si>
+    <t>n_accuracy</t>
+  </si>
+  <si>
+    <t>0:06:00</t>
+  </si>
+  <si>
+    <t>0:04:51</t>
+  </si>
+  <si>
+    <t>0:00:27</t>
+  </si>
+  <si>
+    <t>0:25:47</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +427,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,93 +467,61 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8400</v>
+      </c>
+      <c r="F2" t="n">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.8809523809523809</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>62.28571428571429</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="J2" t="n">
-        <v>216</v>
+        <v>84000</v>
       </c>
       <c r="K2" t="n">
-        <v>1050</v>
-      </c>
-      <c r="L2" t="n">
-        <v>840</v>
-      </c>
-      <c r="M2" t="n">
-        <v>210</v>
+        <v>21000</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>70</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>186</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1050</v>
-      </c>
-      <c r="L3" t="n">
-        <v>840</v>
-      </c>
-      <c r="M3" t="n">
-        <v>210</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
+      <c r="P2" t="n">
+        <v>0.6385714285714286</v>
       </c>
     </row>
   </sheetData>
